--- a/www/input/boxplot_pvalue.xlsx
+++ b/www/input/boxplot_pvalue.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzhang1/Desktop/Publications/2020_03_QuickR/Demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzhang1/github/quickr/www/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3973DB6F-3748-B141-934B-989D79DB453A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E2EA46-F4FE-F04D-A6DF-6CA90CB34C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25540" yWindow="11280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ToothGrowth" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
